--- a/scripts/deduplicate_project/results/excel/all_infer.xlsx
+++ b/scripts/deduplicate_project/results/excel/all_infer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23322CC6-7503-D148-A299-68511DB85055}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314AD553-6694-474B-8C73-EA6B822EA687}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1200" yWindow="460" windowWidth="28040" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="580" windowWidth="28040" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId3"/>
+    <pivotCache cacheId="87" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="81">
   <si>
     <t>line</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Quatiles_Delta</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -862,7 +865,77 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -4935,7 +5008,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23C95FC8-8234-FF45-9FB4-65EC72CAD8E4}" name="PivotTable8" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23C95FC8-8234-FF45-9FB4-65EC72CAD8E4}" name="PivotTable8" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5058,7 +5131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F2C6F80-BDB8-914B-8668-41F4B4AC9EC1}" name="Table1" displayName="Table1" ref="A1:G159" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F2C6F80-BDB8-914B-8668-41F4B4AC9EC1}" name="Table1" displayName="Table1" ref="A1:G160" totalsRowCount="1" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:G159" xr:uid="{2CB50585-904D-3746-BADE-7901A1816B6C}">
     <filterColumn colId="5">
       <filters>
@@ -5105,16 +5178,16 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:G159">
-    <sortCondition ref="E1:E159"/>
+    <sortCondition descending="1" ref="F1:F159"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB1FE780-F8DA-D540-B166-432BC212DF21}" name="line" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C2D720FD-E0B2-0C49-A5D4-212ED55F1A4F}" name="filename" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C918D110-53D0-704D-AB6B-7DD52DC5CD04}" name="tool" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5F57BF39-39BE-5F47-9C8E-40F328E74E92}" name="target" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{62F8D6D5-E749-CA43-9243-2F189D1512F9}" name="type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{167E8E5D-30C1-814B-A888-E5417215AB17}" name="num_configs" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B4646833-AEDB-8849-BBB1-FB19372DB8EC}" name="variability" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB1FE780-F8DA-D540-B166-432BC212DF21}" name="line" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C2D720FD-E0B2-0C49-A5D4-212ED55F1A4F}" name="filename" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C918D110-53D0-704D-AB6B-7DD52DC5CD04}" name="tool" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5F57BF39-39BE-5F47-9C8E-40F328E74E92}" name="target" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{62F8D6D5-E749-CA43-9243-2F189D1512F9}" name="type" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{167E8E5D-30C1-814B-A888-E5417215AB17}" name="num_configs" totalsRowLabel="57" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B4646833-AEDB-8849-BBB1-FB19372DB8EC}" name="variability" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5544,10 +5617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T159"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="U111" sqref="U111"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7056,10 +7129,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <v>219</v>
+        <v>1453</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>8</v>
@@ -7068,10 +7141,10 @@
         <v>27</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F66" s="8">
-        <v>754</v>
+        <v>976</v>
       </c>
       <c r="G66" s="8" t="b">
         <v>1</v>
@@ -7079,10 +7152,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>238</v>
+        <v>1456</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
@@ -7091,10 +7164,10 @@
         <v>27</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7">
-        <v>754</v>
+        <v>976</v>
       </c>
       <c r="G67" s="7" t="b">
         <v>1</v>
@@ -7105,10 +7178,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
-        <v>242</v>
+        <v>1464</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>8</v>
@@ -7117,10 +7190,10 @@
         <v>27</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F68" s="8">
-        <v>754</v>
+        <v>976</v>
       </c>
       <c r="G68" s="8" t="b">
         <v>1</v>
@@ -7157,25 +7230,25 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>49</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="8">
-        <v>742</v>
-      </c>
-      <c r="G69" s="8" t="b">
+      <c r="A69" s="7">
+        <v>1468</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7">
+        <v>976</v>
+      </c>
+      <c r="G69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J69" s="11">
@@ -7216,10 +7289,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
-        <v>90</v>
+        <v>1514</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
@@ -7228,10 +7301,10 @@
         <v>27</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F70" s="8">
-        <v>667</v>
+        <v>976</v>
       </c>
       <c r="G70" s="8" t="b">
         <v>1</v>
@@ -7273,25 +7346,25 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>111</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7">
-        <v>648</v>
-      </c>
-      <c r="G71" s="7" t="b">
+      <c r="A71" s="8">
+        <v>143</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="8">
+        <v>967</v>
+      </c>
+      <c r="G71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J71" s="11">
@@ -7332,10 +7405,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>8</v>
@@ -7344,10 +7417,10 @@
         <v>27</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7">
-        <v>524</v>
+        <v>967</v>
       </c>
       <c r="G72" s="7" t="b">
         <v>1</v>
@@ -7390,10 +7463,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>8</v>
@@ -7402,10 +7475,10 @@
         <v>27</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F73" s="8">
-        <v>524</v>
+        <v>967</v>
       </c>
       <c r="G73" s="8" t="b">
         <v>1</v>
@@ -7445,10 +7518,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>8</v>
@@ -7457,10 +7530,10 @@
         <v>27</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7">
-        <v>519</v>
+        <v>967</v>
       </c>
       <c r="G74" s="7" t="b">
         <v>1</v>
@@ -7476,25 +7549,25 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
+        <v>63</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="7">
-        <v>516</v>
-      </c>
-      <c r="G75" s="7" t="b">
+      <c r="C75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="8">
+        <v>936</v>
+      </c>
+      <c r="G75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="11">
@@ -7508,25 +7581,25 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>89</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="8">
-        <v>516</v>
-      </c>
-      <c r="G76" s="8" t="b">
+      <c r="A76" s="7">
+        <v>251</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="7">
+        <v>760</v>
+      </c>
+      <c r="G76" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="12">
@@ -7543,25 +7616,25 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>193</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="7">
-        <v>516</v>
-      </c>
-      <c r="G77" s="7" t="b">
+      <c r="A77" s="8">
+        <v>253</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="8">
+        <v>760</v>
+      </c>
+      <c r="G77" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="11">
@@ -7590,25 +7663,25 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>136</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="8">
-        <v>515</v>
-      </c>
-      <c r="G78" s="8" t="b">
+      <c r="A78" s="7">
+        <v>254</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="7">
+        <v>760</v>
+      </c>
+      <c r="G78" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="11">
@@ -7637,25 +7710,25 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>570</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="A79" s="8">
+        <v>219</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="7">
-        <v>505</v>
-      </c>
-      <c r="G79" s="7" t="b">
+      <c r="F79" s="8">
+        <v>754</v>
+      </c>
+      <c r="G79" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J79" s="11">
@@ -7689,25 +7762,25 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>726</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="A80" s="7">
+        <v>238</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="8">
-        <v>505</v>
-      </c>
-      <c r="G80" s="8" t="b">
+      <c r="F80" s="7">
+        <v>754</v>
+      </c>
+      <c r="G80" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J80" s="12">
@@ -7741,25 +7814,25 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>779</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="A81" s="8">
+        <v>242</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="7">
-        <v>505</v>
-      </c>
-      <c r="G81" s="7" t="b">
+      <c r="F81" s="8">
+        <v>754</v>
+      </c>
+      <c r="G81" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J81" s="11">
@@ -7793,25 +7866,25 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>912</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="8">
-        <v>505</v>
-      </c>
-      <c r="G82" s="8" t="b">
+      <c r="A82" s="7">
+        <v>150</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7">
+        <v>748</v>
+      </c>
+      <c r="G82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J82" s="11">
@@ -7842,25 +7915,25 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>928</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="7">
-        <v>505</v>
-      </c>
-      <c r="G83" s="7" t="b">
+      <c r="A83" s="8">
+        <v>151</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="8">
+        <v>748</v>
+      </c>
+      <c r="G83" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J83" s="11">
@@ -7871,25 +7944,25 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>20</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="8">
-        <v>491</v>
-      </c>
-      <c r="G84" s="8" t="b">
+      <c r="A84" s="7">
+        <v>203</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7">
+        <v>748</v>
+      </c>
+      <c r="G84" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J84" s="11">
@@ -7901,10 +7974,10 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>8</v>
@@ -7916,7 +7989,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="8">
-        <v>462</v>
+        <v>742</v>
       </c>
       <c r="G85" s="8" t="b">
         <v>1</v>
@@ -7929,25 +8002,25 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>42</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="8">
-        <v>252</v>
-      </c>
-      <c r="G86" s="8" t="b">
+      <c r="A86" s="7">
+        <v>349</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="7">
+        <v>668</v>
+      </c>
+      <c r="G86" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J86" s="11">
@@ -7958,25 +8031,25 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
-        <v>295</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="12">
-        <v>98</v>
-      </c>
-      <c r="G87" s="12" t="b">
+      <c r="A87" s="8">
+        <v>369</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="8">
+        <v>668</v>
+      </c>
+      <c r="G87" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="11">
@@ -7987,25 +8060,25 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>671</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="8">
-        <v>505</v>
-      </c>
-      <c r="G88" s="8" t="b">
+      <c r="A88" s="7">
+        <v>377</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="7">
+        <v>668</v>
+      </c>
+      <c r="G88" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J88" s="11">
@@ -8016,25 +8089,25 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>694</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="7">
-        <v>505</v>
-      </c>
-      <c r="G89" s="7" t="b">
+      <c r="A89" s="8">
+        <v>397</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="8">
+        <v>668</v>
+      </c>
+      <c r="G89" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J89" s="11">
@@ -8045,25 +8118,25 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
-        <v>330</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="11">
-        <v>482</v>
-      </c>
-      <c r="G90" s="11" t="b">
+      <c r="A90" s="7">
+        <v>424</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="7">
+        <v>668</v>
+      </c>
+      <c r="G90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="11">
@@ -8074,25 +8147,25 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
-        <v>135</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="11">
-        <v>307</v>
-      </c>
-      <c r="G91" s="11" t="b">
+      <c r="A91" s="8">
+        <v>428</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="8">
+        <v>668</v>
+      </c>
+      <c r="G91" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="11">
@@ -8104,10 +8177,10 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>8</v>
@@ -8116,10 +8189,10 @@
         <v>27</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F92" s="7">
-        <v>258</v>
+        <v>668</v>
       </c>
       <c r="G92" s="7" t="b">
         <v>1</v>
@@ -8133,10 +8206,10 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>8</v>
@@ -8145,10 +8218,10 @@
         <v>27</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" s="8">
-        <v>530</v>
+        <v>667</v>
       </c>
       <c r="G93" s="8" t="b">
         <v>1</v>
@@ -8161,25 +8234,25 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
-        <v>476</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="11">
-        <v>527</v>
-      </c>
-      <c r="G94" s="11" t="b">
+      <c r="A94" s="7">
+        <v>128</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="7">
+        <v>661</v>
+      </c>
+      <c r="G94" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J94" s="12">
@@ -8190,25 +8263,25 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
-        <v>479</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="12">
-        <v>527</v>
-      </c>
-      <c r="G95" s="12" t="b">
+      <c r="A95" s="8">
+        <v>145</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="8">
+        <v>661</v>
+      </c>
+      <c r="G95" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N95" s="11">
@@ -8216,25 +8289,25 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
-        <v>1373</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="11">
-        <v>503</v>
-      </c>
-      <c r="G96" s="11" t="b">
+      <c r="A96" s="7">
+        <v>111</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="7">
+        <v>648</v>
+      </c>
+      <c r="G96" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N96" s="11">
@@ -8242,25 +8315,25 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="12">
-        <v>173</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="12" t="s">
+      <c r="A97" s="8">
+        <v>26</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="12">
-        <v>501</v>
-      </c>
-      <c r="G97" s="12" t="b">
+      <c r="F97" s="8">
+        <v>530</v>
+      </c>
+      <c r="G97" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N97" s="11">
@@ -8269,10 +8342,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
-        <v>177</v>
+        <v>476</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>8</v>
@@ -8284,7 +8357,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="11">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="G98" s="11" t="b">
         <v>1</v>
@@ -8295,10 +8368,10 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
-        <v>288</v>
+        <v>479</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>8</v>
@@ -8310,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="12">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="G99" s="12" t="b">
         <v>1</v>
@@ -8320,25 +8393,25 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>54</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="8">
-        <v>501</v>
-      </c>
-      <c r="G100" s="8" t="b">
+      <c r="A100" s="11">
+        <v>633</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="11">
+        <v>527</v>
+      </c>
+      <c r="G100" s="11" t="b">
         <v>1</v>
       </c>
       <c r="N100" s="12">
@@ -8346,25 +8419,25 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="11">
-        <v>1319</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="11" t="s">
+      <c r="A101" s="12">
+        <v>640</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="11">
-        <v>497</v>
-      </c>
-      <c r="G101" s="11" t="b">
+      <c r="E101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="12">
+        <v>527</v>
+      </c>
+      <c r="G101" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N101" s="11">
@@ -8372,25 +8445,25 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
-        <v>69</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="12" t="s">
+      <c r="A102" s="11">
+        <v>641</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="12">
-        <v>485</v>
-      </c>
-      <c r="G102" s="12" t="b">
+      <c r="E102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="11">
+        <v>527</v>
+      </c>
+      <c r="G102" s="11" t="b">
         <v>1</v>
       </c>
       <c r="N102" s="12">
@@ -8399,10 +8472,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
-        <v>406</v>
+        <v>669</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>8</v>
@@ -8411,10 +8484,10 @@
         <v>9</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F103" s="12">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="G103" s="12" t="b">
         <v>1</v>
@@ -8425,10 +8498,10 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
-        <v>151</v>
+        <v>670</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>8</v>
@@ -8437,10 +8510,10 @@
         <v>9</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" s="11">
-        <v>337</v>
+        <v>527</v>
       </c>
       <c r="G104" s="11" t="b">
         <v>1</v>
@@ -8451,10 +8524,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
-        <v>117</v>
+        <v>671</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>8</v>
@@ -8463,10 +8536,10 @@
         <v>9</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" s="12">
-        <v>307</v>
+        <v>527</v>
       </c>
       <c r="G105" s="12" t="b">
         <v>1</v>
@@ -8476,25 +8549,25 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
-        <v>72</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="8">
-        <v>516</v>
-      </c>
-      <c r="G106" s="8" t="b">
+      <c r="A106" s="7">
+        <v>113</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="7">
+        <v>524</v>
+      </c>
+      <c r="G106" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N106" s="11">
@@ -8502,25 +8575,25 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <v>73</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="7">
-        <v>516</v>
-      </c>
-      <c r="G107" s="7" t="b">
+      <c r="A107" s="8">
+        <v>130</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="8">
+        <v>524</v>
+      </c>
+      <c r="G107" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N107" s="11">
@@ -8529,10 +8602,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>8</v>
@@ -8541,10 +8614,10 @@
         <v>27</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F108" s="7">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="G108" s="7" t="b">
         <v>1</v>
@@ -8555,10 +8628,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>8</v>
@@ -8567,10 +8640,10 @@
         <v>27</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F109" s="8">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="G109" s="8" t="b">
         <v>1</v>
@@ -8580,25 +8653,25 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
-        <v>1453</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="8">
-        <v>976</v>
-      </c>
-      <c r="G110" s="8" t="b">
+      <c r="A110" s="7">
+        <v>36</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="7">
+        <v>516</v>
+      </c>
+      <c r="G110" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N110" s="12">
@@ -8606,25 +8679,25 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <v>1456</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="7">
-        <v>976</v>
-      </c>
-      <c r="G111" s="7" t="b">
+      <c r="A111" s="8">
+        <v>89</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="8">
+        <v>516</v>
+      </c>
+      <c r="G111" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N111" s="11">
@@ -8632,25 +8705,25 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
-        <v>1464</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="8">
-        <v>976</v>
-      </c>
-      <c r="G112" s="8" t="b">
+      <c r="A112" s="7">
+        <v>193</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="7">
+        <v>516</v>
+      </c>
+      <c r="G112" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N112" s="11">
@@ -8658,25 +8731,25 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <v>1468</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="7">
-        <v>976</v>
-      </c>
-      <c r="G113" s="7" t="b">
+      <c r="A113" s="8">
+        <v>72</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="8">
+        <v>516</v>
+      </c>
+      <c r="G113" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N113" s="11">
@@ -8684,25 +8757,25 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
-        <v>1514</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="8">
-        <v>976</v>
-      </c>
-      <c r="G114" s="8" t="b">
+      <c r="A114" s="7">
+        <v>73</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="7">
+        <v>516</v>
+      </c>
+      <c r="G114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N114" s="11">
@@ -8711,10 +8784,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>8</v>
@@ -8723,10 +8796,10 @@
         <v>27</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F115" s="8">
-        <v>967</v>
+        <v>515</v>
       </c>
       <c r="G115" s="8" t="b">
         <v>1</v>
@@ -8737,10 +8810,10 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>8</v>
@@ -8752,7 +8825,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="7">
-        <v>967</v>
+        <v>515</v>
       </c>
       <c r="G116" s="7" t="b">
         <v>1</v>
@@ -8763,10 +8836,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>8</v>
@@ -8778,7 +8851,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="8">
-        <v>967</v>
+        <v>515</v>
       </c>
       <c r="G117" s="8" t="b">
         <v>1</v>
@@ -8789,10 +8862,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>8</v>
@@ -8804,7 +8877,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="7">
-        <v>967</v>
+        <v>513</v>
       </c>
       <c r="G118" s="7" t="b">
         <v>1</v>
@@ -8815,10 +8888,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>8</v>
@@ -8830,7 +8903,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="8">
-        <v>936</v>
+        <v>507</v>
       </c>
       <c r="G119" s="8" t="b">
         <v>1</v>
@@ -8838,10 +8911,10 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
-        <v>251</v>
+        <v>570</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>8</v>
@@ -8850,10 +8923,10 @@
         <v>27</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F120" s="7">
-        <v>760</v>
+        <v>505</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>1</v>
@@ -8861,10 +8934,10 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
-        <v>253</v>
+        <v>726</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>8</v>
@@ -8873,10 +8946,10 @@
         <v>27</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F121" s="8">
-        <v>760</v>
+        <v>505</v>
       </c>
       <c r="G121" s="8" t="b">
         <v>1</v>
@@ -8884,10 +8957,10 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
-        <v>254</v>
+        <v>779</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>8</v>
@@ -8896,90 +8969,90 @@
         <v>27</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F122" s="7">
-        <v>760</v>
+        <v>505</v>
       </c>
       <c r="G122" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
-        <v>150</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="7">
-        <v>748</v>
-      </c>
-      <c r="G123" s="7" t="b">
+      <c r="A123" s="8">
+        <v>912</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="8">
+        <v>505</v>
+      </c>
+      <c r="G123" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
-        <v>151</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="8">
-        <v>748</v>
-      </c>
-      <c r="G124" s="8" t="b">
+      <c r="A124" s="7">
+        <v>928</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="7">
+        <v>505</v>
+      </c>
+      <c r="G124" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
-        <v>203</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="7">
-        <v>748</v>
-      </c>
-      <c r="G125" s="7" t="b">
+      <c r="A125" s="8">
+        <v>671</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="8">
+        <v>505</v>
+      </c>
+      <c r="G125" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
-        <v>349</v>
+        <v>694</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>8</v>
@@ -8988,10 +9061,10 @@
         <v>27</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F126" s="7">
-        <v>668</v>
+        <v>505</v>
       </c>
       <c r="G126" s="7" t="b">
         <v>1</v>
@@ -8999,10 +9072,10 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
-        <v>369</v>
+        <v>72</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>8</v>
@@ -9014,133 +9087,133 @@
         <v>10</v>
       </c>
       <c r="F127" s="8">
-        <v>668</v>
+        <v>504</v>
       </c>
       <c r="G127" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
-        <v>377</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="7">
-        <v>668</v>
-      </c>
-      <c r="G128" s="7" t="b">
+      <c r="A128" s="11">
+        <v>1373</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="11">
+        <v>503</v>
+      </c>
+      <c r="G128" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
-        <v>397</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="8">
-        <v>668</v>
-      </c>
-      <c r="G129" s="8" t="b">
+      <c r="A129" s="12">
+        <v>173</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="12">
+        <v>501</v>
+      </c>
+      <c r="G129" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
-        <v>424</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="7">
-        <v>668</v>
-      </c>
-      <c r="G130" s="7" t="b">
+      <c r="A130" s="11">
+        <v>177</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="11">
+        <v>501</v>
+      </c>
+      <c r="G130" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
-        <v>428</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="8">
-        <v>668</v>
-      </c>
-      <c r="G131" s="8" t="b">
+      <c r="A131" s="12">
+        <v>288</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="12">
+        <v>501</v>
+      </c>
+      <c r="G131" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
-        <v>479</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="7">
-        <v>668</v>
-      </c>
-      <c r="G132" s="7" t="b">
+      <c r="A132" s="8">
+        <v>54</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="8">
+        <v>501</v>
+      </c>
+      <c r="G132" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>8</v>
@@ -9152,202 +9225,202 @@
         <v>10</v>
       </c>
       <c r="F133" s="7">
-        <v>661</v>
+        <v>501</v>
       </c>
       <c r="G133" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
-        <v>145</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="8" t="s">
+      <c r="A134" s="7">
+        <v>82</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="8">
-        <v>661</v>
-      </c>
-      <c r="G134" s="8" t="b">
+      <c r="F134" s="7">
+        <v>499</v>
+      </c>
+      <c r="G134" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="11">
-        <v>633</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="11" t="s">
+      <c r="A135" s="8">
+        <v>85</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="8">
+        <v>499</v>
+      </c>
+      <c r="G135" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>88</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="7">
+        <v>499</v>
+      </c>
+      <c r="G136" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="8">
+        <v>92</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="8">
+        <v>499</v>
+      </c>
+      <c r="G137" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>1319</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E138" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="11">
+        <v>497</v>
+      </c>
+      <c r="G138" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>30</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="11">
-        <v>527</v>
-      </c>
-      <c r="G135" s="11" t="b">
+      <c r="F139" s="7">
+        <v>492</v>
+      </c>
+      <c r="G139" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="12">
-        <v>640</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="12" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="8">
+        <v>20</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="8">
+        <v>491</v>
+      </c>
+      <c r="G140" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="12">
+        <v>69</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="12">
-        <v>527</v>
-      </c>
-      <c r="G136" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="11">
-        <v>641</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="11">
-        <v>527</v>
-      </c>
-      <c r="G137" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="12">
-        <v>669</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="12">
-        <v>527</v>
-      </c>
-      <c r="G138" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="11">
-        <v>670</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="11">
-        <v>527</v>
-      </c>
-      <c r="G139" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="12">
-        <v>671</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="12">
-        <v>527</v>
-      </c>
-      <c r="G140" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
-        <v>287</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="8">
-        <v>517</v>
-      </c>
-      <c r="G141" s="8" t="b">
+      <c r="E141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="12">
+        <v>485</v>
+      </c>
+      <c r="G141" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>8</v>
@@ -9356,10 +9429,10 @@
         <v>27</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F142" s="7">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G142" s="7" t="b">
         <v>1</v>
@@ -9367,10 +9440,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>8</v>
@@ -9379,113 +9452,113 @@
         <v>27</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F143" s="8">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G143" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
-        <v>95</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E144" s="7" t="s">
+      <c r="A144" s="11">
+        <v>330</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="11">
+        <v>482</v>
+      </c>
+      <c r="G144" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="12">
+        <v>406</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="12">
+        <v>482</v>
+      </c>
+      <c r="G145" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
+        <v>82</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="7">
-        <v>513</v>
-      </c>
-      <c r="G144" s="7" t="b">
+      <c r="F146" s="7">
+        <v>477</v>
+      </c>
+      <c r="G146" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
-        <v>86</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" s="8" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="8">
+        <v>94</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="8">
-        <v>507</v>
-      </c>
-      <c r="G145" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
-        <v>72</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="8">
-        <v>504</v>
-      </c>
-      <c r="G146" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
-        <v>314</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="7">
-        <v>501</v>
-      </c>
-      <c r="G147" s="7" t="b">
+      <c r="F147" s="8">
+        <v>477</v>
+      </c>
+      <c r="G147" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>8</v>
@@ -9497,7 +9570,7 @@
         <v>10</v>
       </c>
       <c r="F148" s="7">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="G148" s="7" t="b">
         <v>1</v>
@@ -9505,10 +9578,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>8</v>
@@ -9520,7 +9593,7 @@
         <v>10</v>
       </c>
       <c r="F149" s="8">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G149" s="8" t="b">
         <v>1</v>
@@ -9528,10 +9601,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>8</v>
@@ -9543,7 +9616,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="7">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G150" s="7" t="b">
         <v>1</v>
@@ -9551,10 +9624,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>8</v>
@@ -9566,7 +9639,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="8">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G151" s="8" t="b">
         <v>1</v>
@@ -9574,10 +9647,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>8</v>
@@ -9589,110 +9662,110 @@
         <v>10</v>
       </c>
       <c r="F152" s="7">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="G152" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
-        <v>82</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="7">
-        <v>477</v>
-      </c>
-      <c r="G153" s="7" t="b">
+      <c r="A153" s="8">
+        <v>118</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="8">
+        <v>462</v>
+      </c>
+      <c r="G153" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
-        <v>94</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="8">
-        <v>477</v>
-      </c>
-      <c r="G154" s="8" t="b">
+      <c r="A154" s="11">
+        <v>151</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="11">
+        <v>337</v>
+      </c>
+      <c r="G154" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
-        <v>115</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="7">
-        <v>474</v>
-      </c>
-      <c r="G155" s="7" t="b">
+      <c r="A155" s="11">
+        <v>135</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="11">
+        <v>307</v>
+      </c>
+      <c r="G155" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
-        <v>62</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="8">
-        <v>472</v>
-      </c>
-      <c r="G156" s="8" t="b">
+      <c r="A156" s="12">
+        <v>117</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="12">
+        <v>307</v>
+      </c>
+      <c r="G156" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>8</v>
@@ -9701,10 +9774,10 @@
         <v>27</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F157" s="7">
-        <v>472</v>
+        <v>258</v>
       </c>
       <c r="G157" s="7" t="b">
         <v>1</v>
@@ -9712,10 +9785,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>8</v>
@@ -9724,36 +9797,53 @@
         <v>27</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F158" s="8">
-        <v>472</v>
+        <v>252</v>
       </c>
       <c r="G158" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="13">
-        <v>79</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="13">
-        <v>472</v>
-      </c>
-      <c r="G159" s="13" t="b">
+      <c r="A159" s="6">
+        <v>295</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="6">
+        <v>98</v>
+      </c>
+      <c r="G159" s="6" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <f>COUNT(F62:F159)</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
